--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Plaur.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H2">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.278248333333334</v>
+        <v>30.531156</v>
       </c>
       <c r="N2">
-        <v>18.834745</v>
+        <v>91.593468</v>
       </c>
       <c r="O2">
-        <v>0.02606887289604513</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="P2">
-        <v>0.02606887289604514</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="Q2">
-        <v>124.4055081354645</v>
+        <v>1005.68096217674</v>
       </c>
       <c r="R2">
-        <v>1119.64957321918</v>
+        <v>9051.12865959066</v>
       </c>
       <c r="S2">
-        <v>0.0006384010358953296</v>
+        <v>0.00264974082582028</v>
       </c>
       <c r="T2">
-        <v>0.0006384010358953297</v>
+        <v>0.00264974082582028</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H3">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>26.726477</v>
       </c>
       <c r="O3">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166746</v>
       </c>
       <c r="P3">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166747</v>
       </c>
       <c r="Q3">
-        <v>176.5312432876476</v>
+        <v>293.4522481991239</v>
       </c>
       <c r="R3">
-        <v>1588.781189588828</v>
+        <v>2641.070233792115</v>
       </c>
       <c r="S3">
-        <v>0.000905890183415422</v>
+        <v>0.0007731799961679226</v>
       </c>
       <c r="T3">
-        <v>0.000905890183415422</v>
+        <v>0.0007731799961679226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H4">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.156346</v>
+        <v>95.73510733333332</v>
       </c>
       <c r="N4">
-        <v>192.469038</v>
+        <v>287.205322</v>
       </c>
       <c r="O4">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661247</v>
       </c>
       <c r="P4">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661248</v>
       </c>
       <c r="Q4">
-        <v>1271.278611562515</v>
+        <v>3153.46640844782</v>
       </c>
       <c r="R4">
-        <v>11441.50750406263</v>
+        <v>28381.19767603039</v>
       </c>
       <c r="S4">
-        <v>0.006523711005218151</v>
+        <v>0.008308667459739153</v>
       </c>
       <c r="T4">
-        <v>0.006523711005218151</v>
+        <v>0.008308667459739155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H5">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.483737333333333</v>
+        <v>8.232281666666665</v>
       </c>
       <c r="N5">
-        <v>22.451212</v>
+        <v>24.696845</v>
       </c>
       <c r="O5">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="P5">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="Q5">
-        <v>148.2926600342631</v>
+        <v>271.1672282386972</v>
       </c>
       <c r="R5">
-        <v>1334.633940308368</v>
+        <v>2440.505054148275</v>
       </c>
       <c r="S5">
-        <v>0.0007609806768239047</v>
+        <v>0.0007144640321453432</v>
       </c>
       <c r="T5">
-        <v>0.0007609806768239047</v>
+        <v>0.0007144640321453432</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H6">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>93.12082700000001</v>
+        <v>120.0969113333333</v>
       </c>
       <c r="N6">
-        <v>279.362481</v>
+        <v>360.290734</v>
       </c>
       <c r="O6">
-        <v>0.386661194994295</v>
+        <v>0.4052746173074916</v>
       </c>
       <c r="P6">
-        <v>0.3866611949942951</v>
+        <v>0.4052746173074917</v>
       </c>
       <c r="Q6">
-        <v>1845.219109830743</v>
+        <v>3955.932010702814</v>
       </c>
       <c r="R6">
-        <v>16606.97198847669</v>
+        <v>35603.38809632533</v>
       </c>
       <c r="S6">
-        <v>0.009468952049029034</v>
+        <v>0.01042298198649444</v>
       </c>
       <c r="T6">
-        <v>0.009468952049029034</v>
+        <v>0.01042298198649444</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H7">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.88514866666667</v>
+        <v>32.83036666666667</v>
       </c>
       <c r="N7">
-        <v>182.655446</v>
+        <v>98.4911</v>
       </c>
       <c r="O7">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="P7">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="Q7">
-        <v>1206.458785257772</v>
+        <v>1081.415808099389</v>
       </c>
       <c r="R7">
-        <v>10858.12906731995</v>
+        <v>9732.7422728945</v>
       </c>
       <c r="S7">
-        <v>0.00619108068297837</v>
+        <v>0.002849284936453633</v>
       </c>
       <c r="T7">
-        <v>0.006191080682978372</v>
+        <v>0.002849284936453633</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.278248333333334</v>
+        <v>30.531156</v>
       </c>
       <c r="N8">
-        <v>18.834745</v>
+        <v>91.593468</v>
       </c>
       <c r="O8">
-        <v>0.02606887289604513</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="P8">
-        <v>0.02606887289604514</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="Q8">
-        <v>3329.352268047666</v>
+        <v>16190.65829795685</v>
       </c>
       <c r="R8">
-        <v>29964.170412429</v>
+        <v>145715.9246816117</v>
       </c>
       <c r="S8">
-        <v>0.01708495040643773</v>
+        <v>0.04265870579487281</v>
       </c>
       <c r="T8">
-        <v>0.01708495040643773</v>
+        <v>0.04265870579487282</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>26.726477</v>
       </c>
       <c r="O9">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166746</v>
       </c>
       <c r="P9">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166747</v>
       </c>
       <c r="Q9">
         <v>4724.346245031392</v>
@@ -1013,10 +1013,10 @@
         <v>42519.11620528252</v>
       </c>
       <c r="S9">
-        <v>0.0242435209015996</v>
+        <v>0.01244757889587099</v>
       </c>
       <c r="T9">
-        <v>0.0242435209015996</v>
+        <v>0.01244757889587099</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>64.156346</v>
+        <v>95.73510733333332</v>
       </c>
       <c r="N10">
-        <v>192.469038</v>
+        <v>287.205322</v>
       </c>
       <c r="O10">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661247</v>
       </c>
       <c r="P10">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661248</v>
       </c>
       <c r="Q10">
-        <v>34022.08143482974</v>
+        <v>50768.28436998006</v>
       </c>
       <c r="R10">
-        <v>306198.7329134677</v>
+        <v>456914.5593298206</v>
       </c>
       <c r="S10">
-        <v>0.1745881863016875</v>
+        <v>0.1337628938115948</v>
       </c>
       <c r="T10">
-        <v>0.1745881863016875</v>
+        <v>0.1337628938115949</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.483737333333333</v>
+        <v>8.232281666666665</v>
       </c>
       <c r="N11">
-        <v>22.451212</v>
+        <v>24.696845</v>
       </c>
       <c r="O11">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="P11">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="Q11">
-        <v>3968.622542679445</v>
+        <v>4365.575266050676</v>
       </c>
       <c r="R11">
-        <v>35717.60288411501</v>
+        <v>39290.17739445608</v>
       </c>
       <c r="S11">
-        <v>0.02036543863930303</v>
+        <v>0.01150229888573032</v>
       </c>
       <c r="T11">
-        <v>0.02036543863930303</v>
+        <v>0.01150229888573032</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.12082700000001</v>
+        <v>120.0969113333333</v>
       </c>
       <c r="N12">
-        <v>279.362481</v>
+        <v>360.290734</v>
       </c>
       <c r="O12">
-        <v>0.386661194994295</v>
+        <v>0.4052746173074916</v>
       </c>
       <c r="P12">
-        <v>0.3866611949942951</v>
+        <v>0.4052746173074917</v>
       </c>
       <c r="Q12">
-        <v>49381.93268476812</v>
+        <v>63687.33807648886</v>
       </c>
       <c r="R12">
-        <v>444437.3941629131</v>
+        <v>573186.0426883998</v>
       </c>
       <c r="S12">
-        <v>0.2534090126149519</v>
+        <v>0.1678016648777266</v>
       </c>
       <c r="T12">
-        <v>0.2534090126149519</v>
+        <v>0.1678016648777267</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.88514866666667</v>
+        <v>32.83036666666667</v>
       </c>
       <c r="N13">
-        <v>182.655446</v>
+        <v>98.4911</v>
       </c>
       <c r="O13">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="P13">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="Q13">
-        <v>32287.36695991148</v>
+        <v>17409.92868061179</v>
       </c>
       <c r="R13">
-        <v>290586.3026392034</v>
+        <v>156689.3581255061</v>
       </c>
       <c r="S13">
-        <v>0.1656863013741765</v>
+        <v>0.04587120621214384</v>
       </c>
       <c r="T13">
-        <v>0.1656863013741765</v>
+        <v>0.04587120621214384</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H14">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.278248333333334</v>
+        <v>30.531156</v>
       </c>
       <c r="N14">
-        <v>18.834745</v>
+        <v>91.593468</v>
       </c>
       <c r="O14">
-        <v>0.02606887289604513</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="P14">
-        <v>0.02606887289604514</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="Q14">
-        <v>716.6944723098924</v>
+        <v>12889.66775305723</v>
       </c>
       <c r="R14">
-        <v>6450.250250789031</v>
+        <v>116007.009777515</v>
       </c>
       <c r="S14">
-        <v>0.003677799322557976</v>
+        <v>0.03396134575582487</v>
       </c>
       <c r="T14">
-        <v>0.003677799322557976</v>
+        <v>0.03396134575582486</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H15">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>26.726477</v>
       </c>
       <c r="O15">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166746</v>
       </c>
       <c r="P15">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166747</v>
       </c>
       <c r="Q15">
-        <v>1016.98846096496</v>
+        <v>3761.135114348172</v>
       </c>
       <c r="R15">
-        <v>9152.896148684638</v>
+        <v>33850.21602913355</v>
       </c>
       <c r="S15">
-        <v>0.005218792131508089</v>
+        <v>0.009909736426096466</v>
       </c>
       <c r="T15">
-        <v>0.005218792131508089</v>
+        <v>0.009909736426096466</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H16">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>64.156346</v>
+        <v>95.73510733333332</v>
       </c>
       <c r="N16">
-        <v>192.469038</v>
+        <v>287.205322</v>
       </c>
       <c r="O16">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661247</v>
       </c>
       <c r="P16">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661248</v>
       </c>
       <c r="Q16">
-        <v>7323.778242041642</v>
+        <v>40417.5238510438</v>
       </c>
       <c r="R16">
-        <v>65914.00417837477</v>
+        <v>363757.7146593942</v>
       </c>
       <c r="S16">
-        <v>0.03758280229277249</v>
+        <v>0.1064909917304912</v>
       </c>
       <c r="T16">
-        <v>0.03758280229277249</v>
+        <v>0.1064909917304912</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H17">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.483737333333333</v>
+        <v>8.232281666666665</v>
       </c>
       <c r="N17">
-        <v>22.451212</v>
+        <v>24.696845</v>
       </c>
       <c r="O17">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="P17">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="Q17">
-        <v>854.3072676087476</v>
+        <v>3475.511229673633</v>
       </c>
       <c r="R17">
-        <v>7688.765408478728</v>
+        <v>31279.6010670627</v>
       </c>
       <c r="S17">
-        <v>0.004383975056960181</v>
+        <v>0.009157182389065283</v>
       </c>
       <c r="T17">
-        <v>0.004383975056960181</v>
+        <v>0.009157182389065283</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H18">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>93.12082700000001</v>
+        <v>120.0969113333333</v>
       </c>
       <c r="N18">
-        <v>279.362481</v>
+        <v>360.290734</v>
       </c>
       <c r="O18">
-        <v>0.386661194994295</v>
+        <v>0.4052746173074916</v>
       </c>
       <c r="P18">
-        <v>0.3866611949942951</v>
+        <v>0.4052746173074917</v>
       </c>
       <c r="Q18">
-        <v>10630.22334008118</v>
+        <v>50702.60966388039</v>
       </c>
       <c r="R18">
-        <v>95672.01006073062</v>
+        <v>456323.4869749235</v>
       </c>
       <c r="S18">
-        <v>0.0545502019469823</v>
+        <v>0.1335898558835432</v>
       </c>
       <c r="T18">
-        <v>0.05455020194698231</v>
+        <v>0.1335898558835432</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H19">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>60.88514866666667</v>
+        <v>32.83036666666667</v>
       </c>
       <c r="N19">
-        <v>182.655446</v>
+        <v>98.4911</v>
       </c>
       <c r="O19">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="P19">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="Q19">
-        <v>6950.354171797815</v>
+        <v>13860.35034324866</v>
       </c>
       <c r="R19">
-        <v>62553.18754618034</v>
+        <v>124743.1530892379</v>
       </c>
       <c r="S19">
-        <v>0.03566653413998039</v>
+        <v>0.03651887382374825</v>
       </c>
       <c r="T19">
-        <v>0.0356665341399804</v>
+        <v>0.03651887382374824</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H20">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I20">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J20">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.278248333333334</v>
+        <v>30.531156</v>
       </c>
       <c r="N20">
-        <v>18.834745</v>
+        <v>91.593468</v>
       </c>
       <c r="O20">
-        <v>0.02606887289604513</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="P20">
-        <v>0.02606887289604514</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="Q20">
-        <v>353.6581610599901</v>
+        <v>504.046914629184</v>
       </c>
       <c r="R20">
-        <v>3182.923449539911</v>
+        <v>4536.422231662656</v>
       </c>
       <c r="S20">
-        <v>0.001814837138301698</v>
+        <v>0.001328049091165931</v>
       </c>
       <c r="T20">
-        <v>0.001814837138301699</v>
+        <v>0.001328049091165931</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H21">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I21">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J21">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>26.726477</v>
       </c>
       <c r="O21">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166746</v>
       </c>
       <c r="P21">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166747</v>
       </c>
       <c r="Q21">
-        <v>501.840439434254</v>
+        <v>147.078154860976</v>
       </c>
       <c r="R21">
-        <v>4516.563954908286</v>
+        <v>1323.703393748784</v>
       </c>
       <c r="S21">
-        <v>0.002575251379063861</v>
+        <v>0.0003875175191523172</v>
       </c>
       <c r="T21">
-        <v>0.002575251379063861</v>
+        <v>0.0003875175191523173</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H22">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I22">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J22">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>64.156346</v>
+        <v>95.73510733333332</v>
       </c>
       <c r="N22">
-        <v>192.469038</v>
+        <v>287.205322</v>
       </c>
       <c r="O22">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661247</v>
       </c>
       <c r="P22">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661248</v>
       </c>
       <c r="Q22">
-        <v>3613.972264560276</v>
+        <v>1580.516161034335</v>
       </c>
       <c r="R22">
-        <v>32525.75038104248</v>
+        <v>14224.64544930902</v>
       </c>
       <c r="S22">
-        <v>0.01854551033930115</v>
+        <v>0.004164300961506539</v>
       </c>
       <c r="T22">
-        <v>0.01854551033930116</v>
+        <v>0.00416430096150654</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H23">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I23">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J23">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.483737333333333</v>
+        <v>8.232281666666665</v>
       </c>
       <c r="N23">
-        <v>22.451212</v>
+        <v>24.696845</v>
       </c>
       <c r="O23">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="P23">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="Q23">
-        <v>421.564207505224</v>
+        <v>135.90891135736</v>
       </c>
       <c r="R23">
-        <v>3794.077867547016</v>
+        <v>1223.18020221624</v>
       </c>
       <c r="S23">
-        <v>0.002163304750740439</v>
+        <v>0.0003580891003812178</v>
       </c>
       <c r="T23">
-        <v>0.00216330475074044</v>
+        <v>0.0003580891003812178</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H24">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I24">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J24">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>93.12082700000001</v>
+        <v>120.0969113333333</v>
       </c>
       <c r="N24">
-        <v>279.362481</v>
+        <v>360.290734</v>
       </c>
       <c r="O24">
-        <v>0.386661194994295</v>
+        <v>0.4052746173074916</v>
       </c>
       <c r="P24">
-        <v>0.3866611949942951</v>
+        <v>0.4052746173074917</v>
       </c>
       <c r="Q24">
-        <v>5245.561928213862</v>
+        <v>1982.711614786592</v>
       </c>
       <c r="R24">
-        <v>47210.05735392476</v>
+        <v>17844.40453307933</v>
       </c>
       <c r="S24">
-        <v>0.02691819855097069</v>
+        <v>0.005223994595817751</v>
       </c>
       <c r="T24">
-        <v>0.0269181985509707</v>
+        <v>0.005223994595817752</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H25">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I25">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J25">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>60.88514866666667</v>
+        <v>32.83036666666667</v>
       </c>
       <c r="N25">
-        <v>182.655446</v>
+        <v>98.4911</v>
       </c>
       <c r="O25">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="P25">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="Q25">
-        <v>3429.703409308293</v>
+        <v>542.0051905168</v>
       </c>
       <c r="R25">
-        <v>30867.33068377463</v>
+        <v>4878.0467146512</v>
       </c>
       <c r="S25">
-        <v>0.01759991371870765</v>
+        <v>0.001428060523299902</v>
       </c>
       <c r="T25">
-        <v>0.01759991371870766</v>
+        <v>0.001428060523299902</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H26">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.278248333333334</v>
+        <v>30.531156</v>
       </c>
       <c r="N26">
-        <v>18.834745</v>
+        <v>91.593468</v>
       </c>
       <c r="O26">
-        <v>0.02606887289604513</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="P26">
-        <v>0.02606887289604514</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="Q26">
-        <v>290.1845451298794</v>
+        <v>1362.3289308919</v>
       </c>
       <c r="R26">
-        <v>2611.660906168915</v>
+        <v>12260.9603780271</v>
       </c>
       <c r="S26">
-        <v>0.001489115047944725</v>
+        <v>0.003589427186298837</v>
       </c>
       <c r="T26">
-        <v>0.001489115047944726</v>
+        <v>0.003589427186298838</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H27">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>26.726477</v>
       </c>
       <c r="O27">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166746</v>
       </c>
       <c r="P27">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166747</v>
       </c>
       <c r="Q27">
-        <v>411.7714665725065</v>
+        <v>397.5201903908361</v>
       </c>
       <c r="R27">
-        <v>3705.943199152559</v>
+        <v>3577.681713517525</v>
       </c>
       <c r="S27">
-        <v>0.002113052185163569</v>
+        <v>0.001047375377661108</v>
       </c>
       <c r="T27">
-        <v>0.002113052185163569</v>
+        <v>0.001047375377661108</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H28">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>64.156346</v>
+        <v>95.73510733333332</v>
       </c>
       <c r="N28">
-        <v>192.469038</v>
+        <v>287.205322</v>
       </c>
       <c r="O28">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661247</v>
       </c>
       <c r="P28">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661248</v>
       </c>
       <c r="Q28">
-        <v>2965.346238752661</v>
+        <v>4271.790639772737</v>
       </c>
       <c r="R28">
-        <v>26688.11614877394</v>
+        <v>38446.11575795464</v>
       </c>
       <c r="S28">
-        <v>0.01521701200357346</v>
+        <v>0.01125519770510831</v>
       </c>
       <c r="T28">
-        <v>0.01521701200357346</v>
+        <v>0.01125519770510831</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H29">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.483737333333333</v>
+        <v>8.232281666666665</v>
       </c>
       <c r="N29">
-        <v>22.451212</v>
+        <v>24.696845</v>
       </c>
       <c r="O29">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="P29">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="Q29">
-        <v>345.9029969258671</v>
+        <v>367.3321600319027</v>
       </c>
       <c r="R29">
-        <v>3113.126972332804</v>
+        <v>3305.989440287124</v>
       </c>
       <c r="S29">
-        <v>0.001775040630165006</v>
+        <v>0.0009678367769501695</v>
       </c>
       <c r="T29">
-        <v>0.001775040630165006</v>
+        <v>0.0009678367769501696</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H30">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>93.12082700000001</v>
+        <v>120.0969113333333</v>
       </c>
       <c r="N30">
-        <v>279.362481</v>
+        <v>360.290734</v>
       </c>
       <c r="O30">
-        <v>0.386661194994295</v>
+        <v>0.4052746173074916</v>
       </c>
       <c r="P30">
-        <v>0.3866611949942951</v>
+        <v>0.4052746173074917</v>
       </c>
       <c r="Q30">
-        <v>4304.10257613467</v>
+        <v>5358.837274951505</v>
       </c>
       <c r="R30">
-        <v>38736.92318521203</v>
+        <v>48229.53547456354</v>
       </c>
       <c r="S30">
-        <v>0.02208699264514982</v>
+        <v>0.01411931859148692</v>
       </c>
       <c r="T30">
-        <v>0.02208699264514983</v>
+        <v>0.01411931859148693</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H31">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>60.88514866666667</v>
+        <v>32.83036666666667</v>
       </c>
       <c r="N31">
-        <v>182.655446</v>
+        <v>98.4911</v>
       </c>
       <c r="O31">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="P31">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="Q31">
-        <v>2814.149462230854</v>
+        <v>1464.921875928611</v>
       </c>
       <c r="R31">
-        <v>25327.34516007768</v>
+        <v>13184.2968833575</v>
       </c>
       <c r="S31">
-        <v>0.01444112852218892</v>
+        <v>0.003859736285435523</v>
       </c>
       <c r="T31">
-        <v>0.01444112852218893</v>
+        <v>0.003859736285435523</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H32">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>6.278248333333334</v>
+        <v>30.531156</v>
       </c>
       <c r="N32">
-        <v>18.834745</v>
+        <v>91.593468</v>
       </c>
       <c r="O32">
-        <v>0.02606887289604513</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="P32">
-        <v>0.02606887289604514</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="Q32">
-        <v>265.7584863379378</v>
+        <v>7151.298564485926</v>
       </c>
       <c r="R32">
-        <v>2391.82637704144</v>
+        <v>64361.68708037335</v>
       </c>
       <c r="S32">
-        <v>0.00136376994490768</v>
+        <v>0.01884204680869576</v>
       </c>
       <c r="T32">
-        <v>0.00136376994490768</v>
+        <v>0.01884204680869576</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H33">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>26.726477</v>
       </c>
       <c r="O33">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166746</v>
       </c>
       <c r="P33">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166747</v>
       </c>
       <c r="Q33">
-        <v>377.1109230661582</v>
+        <v>2086.710120025875</v>
       </c>
       <c r="R33">
-        <v>3393.998307595424</v>
+        <v>18780.39108023288</v>
       </c>
       <c r="S33">
-        <v>0.001935187658015353</v>
+        <v>0.005498007026718659</v>
       </c>
       <c r="T33">
-        <v>0.001935187658015353</v>
+        <v>0.00549800702671866</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H34">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>64.156346</v>
+        <v>95.73510733333332</v>
       </c>
       <c r="N34">
-        <v>192.469038</v>
+        <v>287.205322</v>
       </c>
       <c r="O34">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661247</v>
       </c>
       <c r="P34">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661248</v>
       </c>
       <c r="Q34">
-        <v>2715.74052135025</v>
+        <v>22423.98996106707</v>
       </c>
       <c r="R34">
-        <v>24441.66469215225</v>
+        <v>201815.9096496037</v>
       </c>
       <c r="S34">
-        <v>0.01393613183240305</v>
+        <v>0.05908211839768462</v>
       </c>
       <c r="T34">
-        <v>0.01393613183240305</v>
+        <v>0.05908211839768464</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H35">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.483737333333333</v>
+        <v>8.232281666666665</v>
       </c>
       <c r="N35">
-        <v>22.451212</v>
+        <v>24.696845</v>
       </c>
       <c r="O35">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="P35">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="Q35">
-        <v>316.7868807128604</v>
+        <v>1928.243531469203</v>
       </c>
       <c r="R35">
-        <v>2851.081926415744</v>
+        <v>17354.19178322282</v>
       </c>
       <c r="S35">
-        <v>0.001625627963232347</v>
+        <v>0.005080483572443221</v>
       </c>
       <c r="T35">
-        <v>0.001625627963232347</v>
+        <v>0.005080483572443222</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H36">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>93.12082700000001</v>
+        <v>120.0969113333333</v>
       </c>
       <c r="N36">
-        <v>279.362481</v>
+        <v>360.290734</v>
       </c>
       <c r="O36">
-        <v>0.386661194994295</v>
+        <v>0.4052746173074916</v>
       </c>
       <c r="P36">
-        <v>0.3866611949942951</v>
+        <v>0.4052746173074917</v>
       </c>
       <c r="Q36">
-        <v>3941.808083420874</v>
+        <v>28130.24405683362</v>
       </c>
       <c r="R36">
-        <v>35476.27275078787</v>
+        <v>253172.1965115026</v>
       </c>
       <c r="S36">
-        <v>0.02022783718721134</v>
+        <v>0.07411680137242269</v>
       </c>
       <c r="T36">
-        <v>0.02022783718721134</v>
+        <v>0.0741168013724227</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H37">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>60.88514866666667</v>
+        <v>32.83036666666667</v>
       </c>
       <c r="N37">
-        <v>182.655446</v>
+        <v>98.4911</v>
       </c>
       <c r="O37">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="P37">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="Q37">
-        <v>2577.27061610555</v>
+        <v>7689.841616703933</v>
       </c>
       <c r="R37">
-        <v>23195.43554494995</v>
+        <v>69208.5745503354</v>
       </c>
       <c r="S37">
-        <v>0.01322555774068126</v>
+        <v>0.02026098538424089</v>
       </c>
       <c r="T37">
-        <v>0.01322555774068127</v>
+        <v>0.02026098538424089</v>
       </c>
     </row>
   </sheetData>
